--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/102.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/102.xlsx
@@ -479,13 +479,13 @@
         <v>10.93933527553283</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.455889073316182</v>
+        <v>-8.437860972303126</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.183314412633857</v>
+        <v>-2.199849991122957</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.87953335090996</v>
+        <v>-5.928118886755605</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>10.06601468906725</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.141336588594751</v>
+        <v>-9.127772962850722</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.093723784287925</v>
+        <v>-2.112969469465262</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.796685258527518</v>
+        <v>-5.847182270588055</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>9.22060540638722</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.71415102252595</v>
+        <v>-9.700535027570554</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.191667301846878</v>
+        <v>-2.20845163408997</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.64037625490015</v>
+        <v>-5.69810021812932</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>8.528892057111287</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.36167013647204</v>
+        <v>-10.35189018624927</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.093933261133393</v>
+        <v>-2.109604747634938</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.534276232670802</v>
+        <v>-5.57765103198544</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>8.01182832644256</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.03361948752079</v>
+        <v>-11.02635325944363</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.220902414092452</v>
+        <v>-2.234963547344466</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.067732020905893</v>
+        <v>-5.11921095567956</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>7.719389774259852</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.53708399329936</v>
+        <v>-11.53328722547526</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.000218557392317</v>
+        <v>-2.015811490076813</v>
       </c>
       <c r="G7" t="n">
-        <v>-4.970966810602696</v>
+        <v>-5.020743746006938</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>7.642314446684394</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.15570839487376</v>
+        <v>-12.14996087392624</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.858009963925489</v>
+        <v>-1.870578574653546</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.558258148122965</v>
+        <v>-4.599577455891453</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>7.803774158706899</v>
       </c>
       <c r="E9" t="n">
-        <v>-12.76650359934881</v>
+        <v>-12.75957777114553</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.775436809902722</v>
+        <v>-1.790165650599664</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.979460531793098</v>
+        <v>-4.019090932495002</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>8.170826354426467</v>
       </c>
       <c r="E10" t="n">
-        <v>-13.38778573840008</v>
+        <v>-13.38185492521277</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.692798194365748</v>
+        <v>-1.704489620803409</v>
       </c>
       <c r="G10" t="n">
-        <v>-3.609851730268329</v>
+        <v>-3.654522667564298</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>8.719844318801226</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.24076236084137</v>
+        <v>-14.23930911522594</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.520529673574316</v>
+        <v>-1.53353033029615</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.105496947896516</v>
+        <v>-3.145559394592197</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>9.411573705881372</v>
       </c>
       <c r="E12" t="n">
-        <v>-14.88621289093847</v>
+        <v>-14.88982636652278</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.384199524083422</v>
+        <v>-1.396768134811479</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.6888082253529</v>
+        <v>-2.723712304728942</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>10.17900246444817</v>
       </c>
       <c r="E13" t="n">
-        <v>-15.62447475588056</v>
+        <v>-15.63078524585027</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.217534508908249</v>
+        <v>-1.235261486955947</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.088827263025119</v>
+        <v>-2.121073604924291</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>10.98618006506079</v>
       </c>
       <c r="E14" t="n">
-        <v>-16.2669271486269</v>
+        <v>-16.28025511291978</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.9997571434389781</v>
+        <v>-1.016803321738905</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.391177721498062</v>
+        <v>-1.418134773049176</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>11.76644785541201</v>
       </c>
       <c r="E15" t="n">
-        <v>-16.9081750495118</v>
+        <v>-16.92028542964039</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.7742029500817214</v>
+        <v>-0.7955434037137349</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.217154832125839</v>
+        <v>-1.246939821090766</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>12.4822414872689</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.76405816318396</v>
+        <v>-17.77865608085248</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5882136959121609</v>
+        <v>-0.6091351958532392</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.6892469969417609</v>
+        <v>-0.7209041852130545</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>13.09801848056773</v>
       </c>
       <c r="E17" t="n">
-        <v>-18.62966885786752</v>
+        <v>-18.64240766853252</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.2796150256298357</v>
+        <v>-0.2994236798293672</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.4802938435878129</v>
+        <v>-0.5068188491451499</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>13.57519716760123</v>
       </c>
       <c r="E18" t="n">
-        <v>-19.37647999656525</v>
+        <v>-19.39298939044867</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1462044596726471</v>
+        <v>-0.1672437903393009</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.07300539448455663</v>
+        <v>-0.09717378553038296</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>13.90894355097709</v>
       </c>
       <c r="E19" t="n">
-        <v>-20.0494636395385</v>
+        <v>-20.0656850027594</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08710037696691145</v>
+        <v>0.0671346151332792</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06545880036953826</v>
+        <v>0.04578106919842398</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>14.07671136413306</v>
       </c>
       <c r="E20" t="n">
-        <v>-20.54309582588294</v>
+        <v>-20.56413515654959</v>
       </c>
       <c r="F20" t="n">
-        <v>0.18046158853126</v>
+        <v>0.1644104252473039</v>
       </c>
       <c r="G20" t="n">
-        <v>0.309748079093305</v>
+        <v>0.2938278388377661</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>14.08862714432976</v>
       </c>
       <c r="E21" t="n">
-        <v>-21.18701455654755</v>
+        <v>-21.20941548670975</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4260600975391994</v>
+        <v>0.4110563184825813</v>
       </c>
       <c r="G21" t="n">
-        <v>0.445816382527364</v>
+        <v>0.4358531400648105</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>13.95437336389689</v>
       </c>
       <c r="E22" t="n">
-        <v>-21.61220018363545</v>
+        <v>-21.63263726837138</v>
       </c>
       <c r="F22" t="n">
-        <v>0.539256147908763</v>
+        <v>0.5256008760448426</v>
       </c>
       <c r="G22" t="n">
-        <v>0.623609855118004</v>
+        <v>0.6100200447682923</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>13.68538323237342</v>
       </c>
       <c r="E23" t="n">
-        <v>-21.97722667916561</v>
+        <v>-22.00676291437655</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6799198496402679</v>
+        <v>0.667482161940628</v>
       </c>
       <c r="G23" t="n">
-        <v>0.647123631021744</v>
+        <v>0.640813141052032</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>13.32085605479731</v>
       </c>
       <c r="E24" t="n">
-        <v>-22.26902792490201</v>
+        <v>-22.3049532038997</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8638274276579939</v>
+        <v>0.8530917393277785</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7930766231013062</v>
+        <v>0.7837810880836807</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>12.87447793562249</v>
       </c>
       <c r="E25" t="n">
-        <v>-22.4175339160357</v>
+        <v>-22.45497790216304</v>
       </c>
       <c r="F25" t="n">
-        <v>0.869273825640152</v>
+        <v>0.864298750560296</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8940575549195394</v>
+        <v>0.8888075414800073</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>12.39402671407399</v>
       </c>
       <c r="E26" t="n">
-        <v>-22.63561240447033</v>
+        <v>-22.67756014277522</v>
       </c>
       <c r="F26" t="n">
-        <v>1.032587211287843</v>
+        <v>1.02793944377903</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6844759710291884</v>
+        <v>0.6807446647192965</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>11.91217861087275</v>
       </c>
       <c r="E27" t="n">
-        <v>-22.50967754343577</v>
+        <v>-22.55074809745027</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9950777636462977</v>
+        <v>0.9905609191659023</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5721571049500206</v>
+        <v>0.5680984910690855</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>11.45878643499952</v>
       </c>
       <c r="E28" t="n">
-        <v>-22.61334239733656</v>
+        <v>-22.65580073545228</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9937161641507583</v>
+        <v>0.9875496895123053</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1447196017733479</v>
+        <v>0.1311036068179528</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>11.08166522031858</v>
       </c>
       <c r="E29" t="n">
-        <v>-22.35332926289988</v>
+        <v>-22.39527700120477</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9609068532293927</v>
+        <v>0.9528681792845729</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.0984044619975052</v>
+        <v>-0.1041127060364978</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>10.7882563174687</v>
       </c>
       <c r="E30" t="n">
-        <v>-22.19501713693773</v>
+        <v>-22.23885016685183</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8969640461504026</v>
+        <v>0.8874852188929929</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.5587036453069103</v>
+        <v>-0.5693476875172336</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>10.61769764573874</v>
       </c>
       <c r="E31" t="n">
-        <v>-21.73195547772872</v>
+        <v>-21.77936270631861</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8918056788307626</v>
+        <v>0.8816460518255831</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.8490385531250276</v>
+        <v>-0.8588315956506387</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>10.57379794581068</v>
       </c>
       <c r="E32" t="n">
-        <v>-21.25789628413266</v>
+        <v>-21.31065826458482</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8346315923209447</v>
+        <v>0.8252836880919524</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.268463566962564</v>
+        <v>-1.278505363242168</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>10.65506403452286</v>
       </c>
       <c r="E33" t="n">
-        <v>-21.05352543677331</v>
+        <v>-21.09959725047335</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7437841029022075</v>
+        <v>0.7307441692718484</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.674246401239022</v>
+        <v>-1.688019503828518</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>10.86557646155619</v>
       </c>
       <c r="E34" t="n">
-        <v>-20.56201420348923</v>
+        <v>-20.6092250475365</v>
       </c>
       <c r="F34" t="n">
-        <v>0.696115028255483</v>
+        <v>0.6822633718489368</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.056580921125948</v>
+        <v>-2.06668817891976</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>11.16569432173391</v>
       </c>
       <c r="E35" t="n">
-        <v>-20.1769172077027</v>
+        <v>-20.2222558524436</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6470058002961685</v>
+        <v>0.6313997753088311</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.247820188735041</v>
+        <v>-2.265049659274752</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>11.54713462174022</v>
       </c>
       <c r="E36" t="n">
-        <v>-19.61862213762298</v>
+        <v>-19.66527001264805</v>
       </c>
       <c r="F36" t="n">
-        <v>0.663083148185808</v>
+        <v>0.6479222614950894</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.572888975992257</v>
+        <v>-2.587211955301106</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>11.96548884620491</v>
       </c>
       <c r="E37" t="n">
-        <v>-19.24763864429983</v>
+        <v>-19.29414250399364</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5832855623654877</v>
+        <v>0.5679413834349848</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.810383349541168</v>
+        <v>-2.819770530678686</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>12.38686328494692</v>
       </c>
       <c r="E38" t="n">
-        <v>-18.54708261154191</v>
+        <v>-18.59294494839648</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7588140665645091</v>
+        <v>0.7409823500940782</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.871746972960338</v>
+        <v>-2.885506983246992</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>12.79037012805422</v>
       </c>
       <c r="E39" t="n">
-        <v>-18.09124790350153</v>
+        <v>-18.13134962710574</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8512588169299369</v>
+        <v>0.8327724853174197</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.793297894332716</v>
+        <v>-2.81259594872142</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>13.13555148419141</v>
       </c>
       <c r="E40" t="n">
-        <v>-17.50010424559192</v>
+        <v>-17.53774461626188</v>
       </c>
       <c r="F40" t="n">
-        <v>0.736020367317064</v>
+        <v>0.7206238191751941</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.847251274343469</v>
+        <v>-2.86804185125613</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>13.42479472034762</v>
       </c>
       <c r="E41" t="n">
-        <v>-16.93940019178931</v>
+        <v>-16.98289282182953</v>
       </c>
       <c r="F41" t="n">
-        <v>0.8966105539736759</v>
+        <v>0.8775088841275976</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.005628861819829</v>
+        <v>-3.025607715956303</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>13.63667854880822</v>
       </c>
       <c r="E42" t="n">
-        <v>-16.29871525992661</v>
+        <v>-16.33826710681146</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8786217298691443</v>
+        <v>0.856652845700728</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.143661010680147</v>
+        <v>-3.16970160103234</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>13.77221704593309</v>
       </c>
       <c r="E43" t="n">
-        <v>-15.74314338883796</v>
+        <v>-15.77736666846623</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8948038161815178</v>
+        <v>0.8790144989543961</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.153650437748384</v>
+        <v>-3.181052627596117</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>13.84019456137653</v>
       </c>
       <c r="E44" t="n">
-        <v>-15.15529899124446</v>
+        <v>-15.18971865541536</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9814879532965861</v>
+        <v>0.9585371464150403</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.314253716707837</v>
+        <v>-3.336707016081398</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>13.83162119722101</v>
       </c>
       <c r="E45" t="n">
-        <v>-14.63849342887017</v>
+        <v>-14.67066121695229</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9411505682412281</v>
+        <v>0.9239210977015165</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.412079403541215</v>
+        <v>-3.43229391912884</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>13.77199954685459</v>
       </c>
       <c r="E46" t="n">
-        <v>-14.16490555817641</v>
+        <v>-14.19898482247342</v>
       </c>
       <c r="F46" t="n">
-        <v>0.750120777477603</v>
+        <v>0.7342136295249059</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.439062639698012</v>
+        <v>-3.460141247273191</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>13.65478177554135</v>
       </c>
       <c r="E47" t="n">
-        <v>-13.39073150653947</v>
+        <v>-13.42411687878587</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8033540808320612</v>
+        <v>0.7856401950872058</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.319268068696219</v>
+        <v>-3.337440185040534</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>13.49265801433673</v>
       </c>
       <c r="E48" t="n">
-        <v>-12.82221134794035</v>
+        <v>-12.85335793640082</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7231375413208055</v>
+        <v>0.708971669646058</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.33361723261075</v>
+        <v>-3.358833007883915</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>13.29434889324749</v>
       </c>
       <c r="E49" t="n">
-        <v>-12.4168998365662</v>
+        <v>-12.44036124325857</v>
       </c>
       <c r="F49" t="n">
-        <v>0.6848949247201237</v>
+        <v>0.6707421453482179</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.473796519137112</v>
+        <v>-3.49107835888819</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>13.05245594299416</v>
       </c>
       <c r="E50" t="n">
-        <v>-11.8673373324819</v>
+        <v>-11.89070709305438</v>
       </c>
       <c r="F50" t="n">
-        <v>0.635654773732392</v>
+        <v>0.6214365328462774</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.619880434245091</v>
+        <v>-3.635407905415378</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>12.78989649596201</v>
       </c>
       <c r="E51" t="n">
-        <v>-11.40404001182174</v>
+        <v>-11.41920089851246</v>
       </c>
       <c r="F51" t="n">
-        <v>0.638286326603579</v>
+        <v>0.6259402850238313</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.794492477245191</v>
+        <v>-3.809600994724543</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>12.49626804988809</v>
       </c>
       <c r="E52" t="n">
-        <v>-10.94292910573615</v>
+        <v>-10.95575956252104</v>
       </c>
       <c r="F52" t="n">
-        <v>0.5823167319552</v>
+        <v>0.5703503671578624</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.851260702366916</v>
+        <v>-3.867626080919073</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>12.18627636560907</v>
       </c>
       <c r="E53" t="n">
-        <v>-10.33564263842269</v>
+        <v>-10.35480976978297</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5564856184484744</v>
+        <v>0.5470853450081151</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.009402628392125</v>
+        <v>-4.023306654010038</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>11.86441714198366</v>
       </c>
       <c r="E54" t="n">
-        <v>-9.908545535119899</v>
+        <v>-9.922240083892344</v>
       </c>
       <c r="F54" t="n">
-        <v>0.540015501473583</v>
+        <v>0.5331944116930438</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.073057404808597</v>
+        <v>-4.09196269011205</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>11.52453509606757</v>
       </c>
       <c r="E55" t="n">
-        <v>-9.415476317797653</v>
+        <v>-9.434080480135746</v>
       </c>
       <c r="F55" t="n">
-        <v>0.4514853496578314</v>
+        <v>0.444860644419918</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.186371285903737</v>
+        <v>-4.209256631271074</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>11.18539862003692</v>
       </c>
       <c r="E56" t="n">
-        <v>-9.088797177290903</v>
+        <v>-9.099401942592703</v>
       </c>
       <c r="F56" t="n">
-        <v>0.4148269017009984</v>
+        <v>0.409013919239272</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.448125696618366</v>
+        <v>-4.469950565455523</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>10.83401966859732</v>
       </c>
       <c r="E57" t="n">
-        <v>-8.572803337692797</v>
+        <v>-8.582701118641141</v>
       </c>
       <c r="F57" t="n">
-        <v>0.3833791902751724</v>
+        <v>0.3785350382237337</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.428369411630201</v>
+        <v>-4.453231694726639</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>10.4865347828946</v>
       </c>
       <c r="E58" t="n">
-        <v>-8.468784991615284</v>
+        <v>-8.471586744423412</v>
       </c>
       <c r="F58" t="n">
-        <v>0.3426883130430878</v>
+        <v>0.3352126081204622</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.500180692717068</v>
+        <v>-4.521481869440557</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>10.1448356411062</v>
       </c>
       <c r="E59" t="n">
-        <v>-7.925218762232499</v>
+        <v>-7.924603423998938</v>
       </c>
       <c r="F59" t="n">
-        <v>0.3480168802996703</v>
+        <v>0.3389700990360375</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.738067835351231</v>
+        <v>-4.757889581853604</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>9.809075014747311</v>
       </c>
       <c r="E60" t="n">
-        <v>-7.83829896366628</v>
+        <v>-7.832106304422144</v>
       </c>
       <c r="F60" t="n">
-        <v>0.4611212845493418</v>
+        <v>0.449639334957148</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.800465750694897</v>
+        <v>-4.817223898332307</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>9.500787944777233</v>
       </c>
       <c r="E61" t="n">
-        <v>-7.510061839121366</v>
+        <v>-7.501224534703201</v>
       </c>
       <c r="F61" t="n">
-        <v>0.4101660418893439</v>
+        <v>0.4027427061780852</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.916712307626583</v>
+        <v>-4.930275933370611</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>9.212083475630401</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.229153389349292</v>
+        <v>-7.216820440072386</v>
       </c>
       <c r="F62" t="n">
-        <v>0.3820306830824746</v>
+        <v>0.3746728088854245</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.109378636245424</v>
+        <v>-5.121449739465495</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>8.965205783364864</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.050076871080162</v>
+        <v>-7.036199030067933</v>
       </c>
       <c r="F63" t="n">
-        <v>0.3504913255367565</v>
+        <v>0.340763744525354</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.064760068160822</v>
+        <v>-5.07020646614298</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>8.761200040308379</v>
       </c>
       <c r="E64" t="n">
-        <v>-6.839539549082366</v>
+        <v>-6.819416679614632</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1505325842350743</v>
+        <v>0.1388411577974129</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.058816162670678</v>
+        <v>-5.060203946771901</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>8.601562633923683</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.778097371846145</v>
+        <v>-6.761129747363269</v>
       </c>
       <c r="F65" t="n">
-        <v>0.05934469494245219</v>
+        <v>0.05237958983065392</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.114196603691179</v>
+        <v>-5.118543248234633</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>8.500202336586346</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.510962024663566</v>
+        <v>-6.493654000306805</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1053903240368028</v>
+        <v>0.0937512668105083</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.079724570308914</v>
+        <v>-5.086362367849669</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>8.442390047975607</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.395972328804686</v>
+        <v>-6.375757813217062</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.02761438053229236</v>
+        <v>-0.03904396091311921</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.035865355789132</v>
+        <v>-5.039046785379671</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>8.443749787741549</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.180499208635559</v>
+        <v>-6.159852647054157</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.0609342912644852</v>
+        <v>-0.07355527120390913</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.018138377741435</v>
+        <v>-5.02249811458773</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>8.495670153438397</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.203960615327932</v>
+        <v>-6.182266669519191</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.1376813705226834</v>
+        <v>-0.1515330269292296</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.913648708761619</v>
+        <v>-4.914840108320217</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>8.595580798621215</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.347753377438609</v>
+        <v>-6.320874879704546</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.1722974192362071</v>
+        <v>-0.1889115515423575</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.844914118842557</v>
+        <v>-4.846655395120507</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>8.749700168060714</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.366684847347745</v>
+        <v>-6.340971564566595</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.1685792052291569</v>
+        <v>-0.1866989523621058</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.790581062049394</v>
+        <v>-4.787596017001481</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>8.939814279320581</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.476188868315942</v>
+        <v>-6.448066601811915</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.274011520013577</v>
+        <v>-0.2919086979982165</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.66183135590386</v>
+        <v>-4.663232232307925</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>9.180040920575028</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.565936604295974</v>
+        <v>-6.545250765806047</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.2732652587515986</v>
+        <v>-0.2918432364840078</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.417502800271568</v>
+        <v>-4.418340707653439</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>9.458310844972122</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.869285261138767</v>
+        <v>-6.837209119176539</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.2798114101724616</v>
+        <v>-0.2987559723844392</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.122415386521904</v>
+        <v>-4.123737709108918</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>9.774942245445656</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.097418638155844</v>
+        <v>-7.072909847236133</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.4139420527859452</v>
+        <v>-0.4332924763860163</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.864091159151807</v>
+        <v>-3.863174697952886</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>10.13327234786679</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.371453628936012</v>
+        <v>-7.348136237574899</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.5168082762133869</v>
+        <v>-0.5321000859325229</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.509171921415455</v>
+        <v>-3.506147599459017</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>10.51298538385079</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.877104549289156</v>
+        <v>-7.855201126634949</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.3927717990908741</v>
+        <v>-0.4109177308295064</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.385462751863986</v>
+        <v>-3.383119229655317</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>10.92276275352653</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.275830632333925</v>
+        <v>-8.252840548543853</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.4862508413807983</v>
+        <v>-0.5001155900901861</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.399811915778518</v>
+        <v>-3.395439086629381</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>11.33951185063449</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.749536333753257</v>
+        <v>-8.722723297533401</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.5268762570986742</v>
+        <v>-0.5416443747041413</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.125161586764788</v>
+        <v>-3.125423432821623</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>11.75583165692427</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.321787798662262</v>
+        <v>-9.298012176701686</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.5980460153462972</v>
+        <v>-0.6094625034242823</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.753143801517142</v>
+        <v>-2.754531585618365</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>12.16049805094434</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.893633402183173</v>
+        <v>-9.871599056500548</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.6065429198905774</v>
+        <v>-0.6225155293574832</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.588639016310854</v>
+        <v>-2.59179426129571</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>12.52462431185186</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.78548107176155</v>
+        <v>-10.7690240470895</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.605508627966081</v>
+        <v>-0.6189544229845337</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.198606222352992</v>
+        <v>-2.201682913520798</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>12.84642794383609</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.58923063551796</v>
+        <v>-11.57913647002699</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.6719520648878408</v>
+        <v>-0.6847432447642072</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.958912341926672</v>
+        <v>-1.971127460478002</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>13.09541353488531</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.5392081297136</v>
+        <v>-12.5293234410681</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.5718090404514781</v>
+        <v>-0.5876114499814414</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.729247165477113</v>
+        <v>-1.740925499611933</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>13.2629834322491</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.71167621840154</v>
+        <v>-13.69985386893546</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.6654975595868698</v>
+        <v>-0.683080522303308</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.580688805132047</v>
+        <v>-1.586619618319349</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>13.33607609357136</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.82784740487005</v>
+        <v>-14.81872206978937</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.7228811229421552</v>
+        <v>-0.7403069780244926</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.317324041167886</v>
+        <v>-1.326724314608245</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>13.29519954725692</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.95442697209774</v>
+        <v>-15.9490198510241</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.749890543704636</v>
+        <v>-0.7649597842754627</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.2432477916894</v>
+        <v>-1.248091943740838</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>13.14515315984289</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.29299710693865</v>
+        <v>-17.29086306157545</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9330518604603838</v>
+        <v>-0.9472962859521817</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.078022929826816</v>
+        <v>-1.087122080301816</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>12.86967377229956</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.78466863121071</v>
+        <v>-18.7862658921574</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.9477283319459587</v>
+        <v>-0.9614490653240876</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.12067765248516</v>
+        <v>-1.127511834568541</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>12.47618560497556</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.34225990029086</v>
+        <v>-20.34715642155367</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.019670536061243</v>
+        <v>-1.038510359850487</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.039688667106243</v>
+        <v>-1.053029723701961</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>11.96555449751371</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.9850035070536</v>
+        <v>-21.99276724263874</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.134398385863289</v>
+        <v>-1.15185042555131</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.054050923323616</v>
+        <v>-1.067339610707968</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>11.33793986664218</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.6406954013268</v>
+        <v>-23.64684878366241</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.270545243114398</v>
+        <v>-1.28747359068875</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.242305145884795</v>
+        <v>-1.256510294468068</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>10.61043500732945</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.69891014646888</v>
+        <v>-25.70367574470326</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.281071454599146</v>
+        <v>-1.302215523688534</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.484617486879461</v>
+        <v>-1.494423621707914</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>9.782444702118479</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.69331300756037</v>
+        <v>-27.69616712957987</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.283087669236772</v>
+        <v>-1.305082738010872</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.469299492554642</v>
+        <v>-1.475649259432879</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>8.876734677713555</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.00419610524492</v>
+        <v>-30.01029711836916</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.591817262547514</v>
+        <v>-1.616404607284276</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.718236538787221</v>
+        <v>-1.722740290964775</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>7.897311220154022</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.13325330106357</v>
+        <v>-32.1395376064276</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.603508688985176</v>
+        <v>-1.627480695488376</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.001370680042389</v>
+        <v>-2.00478777108408</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>6.866047838128853</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.51328994235811</v>
+        <v>-34.51846140198059</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.740270884469846</v>
+        <v>-1.764989152235025</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.163675958371267</v>
+        <v>-2.164369850421879</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>5.788192445315438</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.59556834012327</v>
+        <v>-36.6009754611969</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.956883034986204</v>
+        <v>-1.98423285562257</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.397006979616509</v>
+        <v>-2.399599255579171</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>4.700838328462806</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.88916959805674</v>
+        <v>-38.89757485648113</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.014947398089259</v>
+        <v>-2.038709927746992</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.661916635315995</v>
+        <v>-2.660188451340887</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>3.589322350335629</v>
       </c>
       <c r="E100" t="n">
-        <v>-41.22340936401092</v>
+        <v>-41.23182771473815</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.418596187002516</v>
+        <v>-2.442227793631831</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.839251877307174</v>
+        <v>-2.838217585382678</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>2.545837463660844</v>
       </c>
       <c r="E101" t="n">
-        <v>-43.57000826384769</v>
+        <v>-43.58087487520633</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.597567966848911</v>
+        <v>-2.61636851372963</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.022792870845332</v>
+        <v>-3.022949978479433</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>1.474979057417722</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.90482409112691</v>
+        <v>-45.91959220873238</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.919638616755372</v>
+        <v>-2.93760125625422</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.382176583850713</v>
+        <v>-3.375015094196288</v>
       </c>
     </row>
   </sheetData>
